--- a/data/trans_dic/P56$auxiliar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,74</t>
+          <t>0,0; 24,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,17</t>
+          <t>0,0; 20,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 18,33</t>
+          <t>3,52; 18,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,49</t>
+          <t>0,0; 18,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,52</t>
+          <t>0,0; 17,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,07</t>
+          <t>0,0; 19,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 23,15</t>
+          <t>8,94; 22,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,35</t>
+          <t>0,0; 13,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 15,02</t>
+          <t>1,55; 14,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,0</t>
+          <t>0,0; 14,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 18,65</t>
+          <t>7,96; 18,8</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 26,32</t>
+          <t>5,61; 24,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 15,07</t>
+          <t>1,6; 15,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,46; 35,89</t>
+          <t>19,15; 35,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,78</t>
+          <t>3,06; 16,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 31,05</t>
+          <t>16,88; 30,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 14,36</t>
+          <t>3,72; 13,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,48; 35,55</t>
+          <t>26,43; 35,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 10,66</t>
+          <t>2,01; 11,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,73; 26,6</t>
+          <t>15,25; 26,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,36</t>
+          <t>3,93; 12,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,56; 33,92</t>
+          <t>25,78; 33,8</t>
         </is>
       </c>
     </row>
@@ -1709,57 +1710,57 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,85; 20,26</t>
+          <t>5,28; 20,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,04</t>
+          <t>2,28; 13,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,47; 29,1</t>
+          <t>15,82; 28,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,87</t>
+          <t>3,15; 13,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,81</t>
+          <t>14,74; 26,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,22</t>
+          <t>3,52; 12,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,12; 31,79</t>
+          <t>23,79; 31,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,73</t>
+          <t>1,59; 8,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,07</t>
+          <t>13,32; 22,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,29</t>
+          <t>3,65; 10,07</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,72; 29,35</t>
+          <t>22,5; 29,15</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2657</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10541</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1622</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5192</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4389</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1042; 5568</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4101</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7273</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8027</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4738; 12025</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>982; 9359</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9129</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6581; 15534</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7714</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3257</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19528</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37939</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9945</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>61078</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>45653</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>13202</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>80606</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1691</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3204; 14241</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>818; 7910</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13866; 25846</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2188; 12017</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>27530; 49535</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4864; 17843</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>52345; 70340</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2153; 12121</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>33579; 58235</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7139; 23041</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>69725; 91398</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>22173</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>68974</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>49661</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>15859</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>91148</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>4144; 16088</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1641; 9814</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>16150; 29283</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2942; 12902</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>30252; 53940</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6053; 21681</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>59722; 79133</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2256; 12751</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>37799; 62918</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>8909; 24568</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>79430; 102926</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>